--- a/medicine/Enfance/Magali_Le_Huche/Magali_Le_Huche.xlsx
+++ b/medicine/Enfance/Magali_Le_Huche/Magali_Le_Huche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magali Le Huche est une auteure et illustratrice française, née à Paris en 1979. Elle travaille pour la presse, l'édition jeunesse et crée des bandes dessinées.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Magali Le Huche, après une année à la faculté d’arts plastiques, puis une autre à l’atelier de Sèvres, a ensuite été formée aux Arts Décoratifs de Strasbourg pendant 5 ans. Elle y a notamment suivi l'enseignement de Claude Lapointe. Avec d’autres anciennes élèves de cette école, elle a fondé l’association « Ô Mazette ». Par ce biais, elle organise des expositions et des ateliers pour enfants. Elle vit et travaille actuellement à Paris[1],[2],[3].
-En 2004, elle coécrit et coréalise avec Pauline Pinson et Marion Puech le court métrage d'animation Vivre avec même si c'est dur. Il reçoit la Mention Spéciale du Jury au Festival international du court métrage de Clermont-Ferrand en 2006[4].
-Elle obtient le Prix Sorcières 2006[5] catégorie Album pour Les Sirènes de Belpêchao, qu'elle a écrit et illustré.
-En 2017, l'auteure Marie Desplechin scénarise en bande dessinée son roman jeunesse Verte publié en 1996, et les illustrations sont réalisées par Magali Le Huche ; « une adaptation plutôt drôle, assez fidèle au roman même si la structure en est différente, avec un dessin plein de fantaisie aux couleurs très tendres[6] » selon Pascale Joncour dans La Revue des livres pour enfants. Suivront en 2018 les deux opus de la série adaptés : Pome et Mauve.
-Sa série d'albums jeunesse Non-Non, l'ornithorynque, est adaptée en 2018 en série d'animation française de 57 épisodes par Mathieu Auvray[7], diffusée sur la chaîne Piwi+. Puis, en octobre 2018, à partir de cette série animée, sort sur les écrans La Grande Aventure de Non-Non[8],[9], un programme de trois courts métrages d’animation, réalisés par le même Mathieu Auvray.
-En 2019, elle scénarise et illustre l'ouvrage Roger chéri ; Marine Landrot de Télérama écrit à propos de l'album : « Magali Le Huche charme encore et toujours, par sa tendre impertinence[10]. ». La même année, elle illustre  Trois histoires vraiment bien écrit par Julien Baer. Selon Marine Landrot, dans son avis critique de Télérama : « les trouvailles narratives de Julien Baer sont d’une infinie souplesse, et le dessin fripon de Magali Le Huche leur donne un large quota d’allégresse[11]. »
-En 2021, chez Dargaud, elle signe Nowhere girl[12]. Elle y explore ses années d'entrée au collège, où elle a connu à la fois une période de phobie scolaire et, d'une façon qui a pu l'aider à s'en sortir en affirmant sa personnalité[13], une passion dévorante pour les Beatles[14]. Le titre de la bande dessinée est une allusion à leur chanson Nowhere Man. L'album est « Pépite » 2021 du Salon du livre et de la presse jeunesse[15], dans la catégorie Bande dessinée.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Magali Le Huche, après une année à la faculté d’arts plastiques, puis une autre à l’atelier de Sèvres, a ensuite été formée aux Arts Décoratifs de Strasbourg pendant 5 ans. Elle y a notamment suivi l'enseignement de Claude Lapointe. Avec d’autres anciennes élèves de cette école, elle a fondé l’association « Ô Mazette ». Par ce biais, elle organise des expositions et des ateliers pour enfants. Elle vit et travaille actuellement à Paris.
+En 2004, elle coécrit et coréalise avec Pauline Pinson et Marion Puech le court métrage d'animation Vivre avec même si c'est dur. Il reçoit la Mention Spéciale du Jury au Festival international du court métrage de Clermont-Ferrand en 2006.
+Elle obtient le Prix Sorcières 2006 catégorie Album pour Les Sirènes de Belpêchao, qu'elle a écrit et illustré.
+En 2017, l'auteure Marie Desplechin scénarise en bande dessinée son roman jeunesse Verte publié en 1996, et les illustrations sont réalisées par Magali Le Huche ; « une adaptation plutôt drôle, assez fidèle au roman même si la structure en est différente, avec un dessin plein de fantaisie aux couleurs très tendres » selon Pascale Joncour dans La Revue des livres pour enfants. Suivront en 2018 les deux opus de la série adaptés : Pome et Mauve.
+Sa série d'albums jeunesse Non-Non, l'ornithorynque, est adaptée en 2018 en série d'animation française de 57 épisodes par Mathieu Auvray, diffusée sur la chaîne Piwi+. Puis, en octobre 2018, à partir de cette série animée, sort sur les écrans La Grande Aventure de Non-Non un programme de trois courts métrages d’animation, réalisés par le même Mathieu Auvray.
+En 2019, elle scénarise et illustre l'ouvrage Roger chéri ; Marine Landrot de Télérama écrit à propos de l'album : « Magali Le Huche charme encore et toujours, par sa tendre impertinence. ». La même année, elle illustre  Trois histoires vraiment bien écrit par Julien Baer. Selon Marine Landrot, dans son avis critique de Télérama : « les trouvailles narratives de Julien Baer sont d’une infinie souplesse, et le dessin fripon de Magali Le Huche leur donne un large quota d’allégresse. »
+En 2021, chez Dargaud, elle signe Nowhere girl. Elle y explore ses années d'entrée au collège, où elle a connu à la fois une période de phobie scolaire et, d'une façon qui a pu l'aider à s'en sortir en affirmant sa personnalité, une passion dévorante pour les Beatles. Le titre de la bande dessinée est une allusion à leur chanson Nowhere Man. L'album est « Pépite » 2021 du Salon du livre et de la presse jeunesse, dans la catégorie Bande dessinée.
 </t>
         </is>
       </c>
@@ -548,15 +562,53 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a écrit et participé à plus d'une centaine d'ouvrages[16],[17],[18].
-Auteure du texte et illustratrice
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a écrit et participé à plus d'une centaine d'ouvrages.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Magali_Le_Huche</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Magali_Le_Huche</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auteure du texte et illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Paco : j'aime la musique, Gallimard jeunesse musique, 2021
 Nowhere girl, Dargaud, 2021
 Paco et le hip-hop, Gallimard jeunesse musique, 2019
 Jean-Michel et le poussin-sandwich, Actes Sud junior, 2019
-Roger chéri[10], Actes Sud junior, 2019
+Roger chéri, Actes Sud junior, 2019
 Le voyage d'Agathe et son gros sac, Gallimard jeunesse, 2018
 Paco et le disco, Gallimard jeunesse musique, 2018
 Paco et la musique africaine, Gallimard jeunesse musique, 2017
@@ -626,16 +678,52 @@
 Ma petite cocotte a peur de tout, 2005
 Ma petite souris a mal partout, 2005
 Mon petit loup est fort en tout, 2005
-Les Sirènes de Belpêchao, Didier Jeunesse, 2005 Prix Sorcières 2006[5] Catégorie Album 
+Les Sirènes de Belpêchao, Didier Jeunesse, 2005 Prix Sorcières 2006 Catégorie Album 
 Mon petit lapin aime les bisous, 2005
 Le festin de Noël, 2003
 Les deniers de Compère Lapin.
-Illustratrice
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Magali_Le_Huche</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Magali_Le_Huche</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Modeste, texte de Julien Baer,  Les Éditions des Éléphants,  2023
 Sweety, texte de Astrid Desbordes, l'École des loisirs, 2021
 La Terrible Histoire de Petit Biscuit, Carl Norac, Éditions Sarbacane, 2020
 La Grande Course des Jean, Clémence Sabbagh, Les Fourmis rouges, 2020
- Trois histoires vraiment bien[11] , Julien Baer, les Fourmis rouges, 2019
+ Trois histoires vraiment bien , Julien Baer, les Fourmis rouges, 2019
 Silence !, Céline Claire, Saltimbanque éditions, 2019
 Le slip du cauchemar, Claudine Aubrun, Seuil jeunesse, 2018
 Non-Non a très honte, de Pauline Pinson, Tourbillon, 2018
@@ -718,75 +806,7 @@
 Et pour quelques kebabs de plus, 2005
 Quel est le comble ?, 2005
 Jean-Paul II, 2005
-Adaptations des trois romans de Marie Desplechin
-Les trois opus illustrés d'après la série des trois romans, Verte publié en 1996, Pome en 2007, et Mauve en 2014 :
-Verte[6], Marie Desplechin, Rue de Sèvres, 2017
-Pome, Rue de Sèvres, 2018
-Mauve, Rue de Sèvres, 2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Magali_Le_Huche</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Magali_Le_Huche</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Court métrage d'animation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2004 : Vivre avec même si c'est dur[4], écrit et réalisé avec Pauline Pinson et Marion Puech, 7 minutes 30.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Magali_Le_Huche</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Magali_Le_Huche</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Prix et distinctions</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix Sorcières 2006[5], catégorie Album, pour Les Sirènes de Belpêchao
-Mention Spéciale du Jury au Festival international du court métrage de Clermont-Ferrand 2006[4], pour Vivre avec même si c'est dur réalisé avec Pauline Pinson et Marion Puech.
-Prix Ficelle 2020[19] pour Silence !, texte de Céline Claire
-« Pépite » 2021 du Salon du livre et de la presse jeunesse[15], catégorie Bande dessinée, pour Nowhere Girl
-2022 :  "Mention" Prix BolognaRagazzi, catégorie Comics - middle grade[20], Foire du livre de jeunesse de Bologne  pour Nowhere Girl</t>
+</t>
         </is>
       </c>
     </row>
@@ -811,15 +831,165 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Adaptations des trois romans de Marie Desplechin</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les trois opus illustrés d'après la série des trois romans, Verte publié en 1996, Pome en 2007, et Mauve en 2014 :
+Verte, Marie Desplechin, Rue de Sèvres, 2017
+Pome, Rue de Sèvres, 2018
+Mauve, Rue de Sèvres, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Magali_Le_Huche</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Magali_Le_Huche</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Court métrage d'animation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2004 : Vivre avec même si c'est dur, écrit et réalisé avec Pauline Pinson et Marion Puech, 7 minutes 30.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Magali_Le_Huche</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Magali_Le_Huche</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Prix Sorcières 2006, catégorie Album, pour Les Sirènes de Belpêchao
+Mention Spéciale du Jury au Festival international du court métrage de Clermont-Ferrand 2006, pour Vivre avec même si c'est dur réalisé avec Pauline Pinson et Marion Puech.
+Prix Ficelle 2020 pour Silence !, texte de Céline Claire
+« Pépite » 2021 du Salon du livre et de la presse jeunesse, catégorie Bande dessinée, pour Nowhere Girl
+2022 :  "Mention" Prix BolognaRagazzi, catégorie Comics - middle grade, Foire du livre de jeunesse de Bologne  pour Nowhere Girl</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Magali_Le_Huche</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Magali_Le_Huche</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Adaptations de son œuvre</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En série animée
-Non-Non, l'ornithorynque, série d'animation française réalisée par Mathieu Auvray[7], 57 épisodes x 7 min, diffusée sur la chaîne Piwi+, 2018 - d'après sa série d'albums jeunesse Non-Non.
-En courts métrages au cinéma
-La Grande Aventure de Non-Non[8],[9], réalisé par Mathieu Auvray, programme de trois courts métrages d’animation français, 41 min. Sortie cinéma le 17 octobre 2018 - d'après sa série d'albums jeunesse Non-Non.</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En série animée</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Non-Non, l'ornithorynque, série d'animation française réalisée par Mathieu Auvray, 57 épisodes x 7 min, diffusée sur la chaîne Piwi+, 2018 - d'après sa série d'albums jeunesse Non-Non.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Magali_Le_Huche</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Magali_Le_Huche</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Adaptations de son œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>En courts métrages au cinéma</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>La Grande Aventure de Non-Non réalisé par Mathieu Auvray, programme de trois courts métrages d’animation français, 41 min. Sortie cinéma le 17 octobre 2018 - d'après sa série d'albums jeunesse Non-Non.</t>
         </is>
       </c>
     </row>
